--- a/calculations/results_2025_parameters/005_luminosity_estimates/natalia_2025_data/rates_conservative.xlsx
+++ b/calculations/results_2025_parameters/005_luminosity_estimates/natalia_2025_data/rates_conservative.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28919"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="124" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50BB0D45-BC0E-4254-ADBB-AF35985E8AF7}"/>
+  <xr:revisionPtr revIDLastSave="125" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F317DE2-768A-4D37-91EF-9E3D8CB0C615}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -467,7 +467,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -508,18 +508,18 @@
         <v>16</v>
       </c>
       <c r="C2" s="3">
-        <v>5.835832E+29</v>
+        <v>7.2585480000000004E+29</v>
       </c>
       <c r="D2" s="2">
         <f>B2*B2*C2</f>
-        <v>1.493972992E+32</v>
+        <v>1.8581882880000001E+32</v>
       </c>
       <c r="E2" s="4">
         <v>1.410800813</v>
       </c>
       <c r="F2" s="6">
         <f>C2*E2*1E-24/1000</f>
-        <v>823.31965301314165</v>
+        <v>1024.0365419599525</v>
       </c>
     </row>
     <row r="3" spans="1:6">
